--- a/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
+++ b/04_Model_Saved/NN_full_v3_BO_optimal/MultiTaskModel_NiFe_CrMoTi_TC_wt_pct_ML_XAI_NoEng_swish.xlsx
@@ -497,16 +497,16 @@
         <v>72.83333333333333</v>
       </c>
       <c r="F2" t="n">
-        <v>449.9837341308594</v>
+        <v>405.3501586914062</v>
       </c>
       <c r="G2" t="n">
-        <v>100.1638565063477</v>
+        <v>114.4635620117188</v>
       </c>
       <c r="H2" t="n">
-        <v>-305.1394653320312</v>
+        <v>-262.7905883789062</v>
       </c>
       <c r="I2" t="n">
-        <v>78.24227905273438</v>
+        <v>65.30587005615234</v>
       </c>
     </row>
     <row r="3">
@@ -526,16 +526,16 @@
         <v>70.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>445.179931640625</v>
+        <v>399.8323974609375</v>
       </c>
       <c r="G3" t="n">
-        <v>103.9567794799805</v>
+        <v>119.299430847168</v>
       </c>
       <c r="H3" t="n">
-        <v>-289.4980163574219</v>
+        <v>-243.4535980224609</v>
       </c>
       <c r="I3" t="n">
-        <v>80.72939300537109</v>
+        <v>66.24166107177734</v>
       </c>
     </row>
     <row r="4">
@@ -555,16 +555,16 @@
         <v>67.96666666666667</v>
       </c>
       <c r="F4" t="n">
-        <v>438.6929626464844</v>
+        <v>393.734130859375</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5095748901367</v>
+        <v>122.4595184326172</v>
       </c>
       <c r="H4" t="n">
-        <v>-273.0428466796875</v>
+        <v>-224.13671875</v>
       </c>
       <c r="I4" t="n">
-        <v>82.82661437988281</v>
+        <v>66.99299621582031</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>65.53333333333333</v>
       </c>
       <c r="F5" t="n">
-        <v>430.3540344238281</v>
+        <v>386.990234375</v>
       </c>
       <c r="G5" t="n">
-        <v>108.1882247924805</v>
+        <v>123.7951202392578</v>
       </c>
       <c r="H5" t="n">
-        <v>-255.9923095703125</v>
+        <v>-205.09033203125</v>
       </c>
       <c r="I5" t="n">
-        <v>84.49956512451172</v>
+        <v>67.33958435058594</v>
       </c>
     </row>
     <row r="6">
@@ -613,16 +613,16 @@
         <v>63.09999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>420.2841796875</v>
+        <v>379.5346984863281</v>
       </c>
       <c r="G6" t="n">
-        <v>110.074348449707</v>
+        <v>123.3650588989258</v>
       </c>
       <c r="H6" t="n">
-        <v>-238.6033782958984</v>
+        <v>-186.5125427246094</v>
       </c>
       <c r="I6" t="n">
-        <v>85.71458435058594</v>
+        <v>67.11772155761719</v>
       </c>
     </row>
     <row r="7">
@@ -642,16 +642,16 @@
         <v>60.66666666666666</v>
       </c>
       <c r="F7" t="n">
-        <v>409.1976318359375</v>
+        <v>371.2868347167969</v>
       </c>
       <c r="G7" t="n">
-        <v>113.0979919433594</v>
+        <v>121.3536834716797</v>
       </c>
       <c r="H7" t="n">
-        <v>-221.1627807617188</v>
+        <v>-168.5845947265625</v>
       </c>
       <c r="I7" t="n">
-        <v>86.42373657226562</v>
+        <v>66.24249267578125</v>
       </c>
     </row>
     <row r="8">
@@ -671,16 +671,16 @@
         <v>58.23333333333333</v>
       </c>
       <c r="F8" t="n">
-        <v>398.209716796875</v>
+        <v>362.1568908691406</v>
       </c>
       <c r="G8" t="n">
-        <v>116.8711547851562</v>
+        <v>117.9496231079102</v>
       </c>
       <c r="H8" t="n">
-        <v>-203.9695434570312</v>
+        <v>-151.4600219726562</v>
       </c>
       <c r="I8" t="n">
-        <v>86.56789398193359</v>
+        <v>64.70838165283203</v>
       </c>
     </row>
     <row r="9">
@@ -700,16 +700,16 @@
         <v>55.8</v>
       </c>
       <c r="F9" t="n">
-        <v>388.2079162597656</v>
+        <v>352.0262451171875</v>
       </c>
       <c r="G9" t="n">
-        <v>120.168342590332</v>
+        <v>113.2533340454102</v>
       </c>
       <c r="H9" t="n">
-        <v>-187.3148803710938</v>
+        <v>-135.2832794189453</v>
       </c>
       <c r="I9" t="n">
-        <v>86.09348297119141</v>
+        <v>62.5794563293457</v>
       </c>
     </row>
     <row r="10">
@@ -729,16 +729,16 @@
         <v>53.36666666666667</v>
       </c>
       <c r="F10" t="n">
-        <v>379.5119934082031</v>
+        <v>340.7737426757812</v>
       </c>
       <c r="G10" t="n">
-        <v>122.1864471435547</v>
+        <v>107.2635498046875</v>
       </c>
       <c r="H10" t="n">
-        <v>-171.4644775390625</v>
+        <v>-120.163215637207</v>
       </c>
       <c r="I10" t="n">
-        <v>84.97100067138672</v>
+        <v>59.98385238647461</v>
       </c>
     </row>
     <row r="11">
@@ -758,16 +758,16 @@
         <v>50.93333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>371.9856872558594</v>
+        <v>328.37255859375</v>
       </c>
       <c r="G11" t="n">
-        <v>122.7397918701172</v>
+        <v>100.0996780395508</v>
       </c>
       <c r="H11" t="n">
-        <v>-156.6443023681641</v>
+        <v>-106.1920547485352</v>
       </c>
       <c r="I11" t="n">
-        <v>83.202880859375</v>
+        <v>57.10440826416016</v>
       </c>
     </row>
     <row r="12">
@@ -787,16 +787,16 @@
         <v>48.49999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>365.2244873046875</v>
+        <v>315.1412353515625</v>
       </c>
       <c r="G12" t="n">
-        <v>121.8152770996094</v>
+        <v>92.50302886962891</v>
       </c>
       <c r="H12" t="n">
-        <v>-143.0329895019531</v>
+        <v>-93.42179870605469</v>
       </c>
       <c r="I12" t="n">
-        <v>80.81764984130859</v>
+        <v>54.16696548461914</v>
       </c>
     </row>
     <row r="13">
@@ -816,16 +816,16 @@
         <v>46.06666666666666</v>
       </c>
       <c r="F13" t="n">
-        <v>358.6618957519531</v>
+        <v>301.9389953613281</v>
       </c>
       <c r="G13" t="n">
-        <v>119.3546295166016</v>
+        <v>85.87899780273438</v>
       </c>
       <c r="H13" t="n">
-        <v>-130.7586364746094</v>
+        <v>-81.88963317871094</v>
       </c>
       <c r="I13" t="n">
-        <v>77.85538482666016</v>
+        <v>51.41690444946289</v>
       </c>
     </row>
     <row r="14">
@@ -845,16 +845,16 @@
         <v>43.63333333333333</v>
       </c>
       <c r="F14" t="n">
-        <v>351.7195739746094</v>
+        <v>289.8197937011719</v>
       </c>
       <c r="G14" t="n">
-        <v>115.5180053710938</v>
+        <v>81.23731231689453</v>
       </c>
       <c r="H14" t="n">
-        <v>-119.8954467773438</v>
+        <v>-71.62062835693359</v>
       </c>
       <c r="I14" t="n">
-        <v>74.35916137695312</v>
+        <v>49.0858268737793</v>
       </c>
     </row>
     <row r="15">
@@ -874,16 +874,16 @@
         <v>41.2</v>
       </c>
       <c r="F15" t="n">
-        <v>344.1260986328125</v>
+        <v>279.5151672363281</v>
       </c>
       <c r="G15" t="n">
-        <v>111.2068099975586</v>
+        <v>78.37660980224609</v>
       </c>
       <c r="H15" t="n">
-        <v>-110.4546890258789</v>
+        <v>-62.62730407714844</v>
       </c>
       <c r="I15" t="n">
-        <v>70.38628387451172</v>
+        <v>47.35214614868164</v>
       </c>
     </row>
     <row r="16">
@@ -903,16 +903,16 @@
         <v>38.76666666666667</v>
       </c>
       <c r="F16" t="n">
-        <v>336.1357421875</v>
+        <v>271.1824035644531</v>
       </c>
       <c r="G16" t="n">
-        <v>107.8484420776367</v>
+        <v>76.50369262695312</v>
       </c>
       <c r="H16" t="n">
-        <v>-102.3784866333008</v>
+        <v>-54.91718673706055</v>
       </c>
       <c r="I16" t="n">
-        <v>66.03117370605469</v>
+        <v>46.3110237121582</v>
       </c>
     </row>
     <row r="17">
@@ -932,16 +932,16 @@
         <v>36.33333333333334</v>
       </c>
       <c r="F17" t="n">
-        <v>328.2814331054688</v>
+        <v>264.5980224609375</v>
       </c>
       <c r="G17" t="n">
-        <v>106.1937942504883</v>
+        <v>75.07795715332031</v>
       </c>
       <c r="H17" t="n">
-        <v>-95.55042266845703</v>
+        <v>-48.47979736328125</v>
       </c>
       <c r="I17" t="n">
-        <v>61.43052291870117</v>
+        <v>45.96842956542969</v>
       </c>
     </row>
     <row r="18">
@@ -961,16 +961,16 @@
         <v>33.90000000000002</v>
       </c>
       <c r="F18" t="n">
-        <v>320.9761657714844</v>
+        <v>259.4061279296875</v>
       </c>
       <c r="G18" t="n">
-        <v>105.8165130615234</v>
+        <v>73.92900848388672</v>
       </c>
       <c r="H18" t="n">
-        <v>-89.82663726806641</v>
+        <v>-43.28130340576172</v>
       </c>
       <c r="I18" t="n">
-        <v>56.73782348632812</v>
+        <v>46.25207901000977</v>
       </c>
     </row>
     <row r="19">
@@ -990,16 +990,16 @@
         <v>31.46666666666668</v>
       </c>
       <c r="F19" t="n">
-        <v>314.38916015625</v>
+        <v>255.3021392822266</v>
       </c>
       <c r="G19" t="n">
-        <v>105.8066177368164</v>
+        <v>73.00962066650391</v>
       </c>
       <c r="H19" t="n">
-        <v>-85.06833648681641</v>
+        <v>-39.26166152954102</v>
       </c>
       <c r="I19" t="n">
-        <v>52.09060668945312</v>
+        <v>47.03565216064453</v>
       </c>
     </row>
     <row r="20">
@@ -1019,16 +1019,16 @@
         <v>29.03333333333335</v>
       </c>
       <c r="F20" t="n">
-        <v>308.5267028808594</v>
+        <v>251.9950256347656</v>
       </c>
       <c r="G20" t="n">
-        <v>105.4250717163086</v>
+        <v>72.28308868408203</v>
       </c>
       <c r="H20" t="n">
-        <v>-81.15935516357422</v>
+        <v>-36.3443603515625</v>
       </c>
       <c r="I20" t="n">
-        <v>47.59668731689453</v>
+        <v>48.15591049194336</v>
       </c>
     </row>
     <row r="21">
@@ -1048,16 +1048,16 @@
         <v>26.60000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>303.3008728027344</v>
+        <v>249.1869201660156</v>
       </c>
       <c r="G21" t="n">
-        <v>104.2341995239258</v>
+        <v>71.731689453125</v>
       </c>
       <c r="H21" t="n">
-        <v>-78.00917816162109</v>
+        <v>-34.45908737182617</v>
       </c>
       <c r="I21" t="n">
-        <v>43.33843612670898</v>
+        <v>49.44600296020508</v>
       </c>
     </row>
     <row r="22">
@@ -1077,16 +1077,16 @@
         <v>24.16666666666669</v>
       </c>
       <c r="F22" t="n">
-        <v>298.5373840332031</v>
+        <v>246.6376800537109</v>
       </c>
       <c r="G22" t="n">
-        <v>102.0202255249023</v>
+        <v>71.35159301757812</v>
       </c>
       <c r="H22" t="n">
-        <v>-75.55031585693359</v>
+        <v>-33.5336799621582</v>
       </c>
       <c r="I22" t="n">
-        <v>39.38211822509766</v>
+        <v>50.76986312866211</v>
       </c>
     </row>
     <row r="23">
@@ -1106,16 +1106,16 @@
         <v>21.73333333333335</v>
       </c>
       <c r="F23" t="n">
-        <v>293.9914855957031</v>
+        <v>244.2381439208984</v>
       </c>
       <c r="G23" t="n">
-        <v>98.72731781005859</v>
+        <v>71.13506317138672</v>
       </c>
       <c r="H23" t="n">
-        <v>-73.73557281494141</v>
+        <v>-33.4846076965332</v>
       </c>
       <c r="I23" t="n">
-        <v>35.78407287597656</v>
+        <v>52.0357551574707</v>
       </c>
     </row>
     <row r="24">
@@ -1135,16 +1135,16 @@
         <v>19.30000000000003</v>
       </c>
       <c r="F24" t="n">
-        <v>289.4029846191406</v>
+        <v>241.9604949951172</v>
       </c>
       <c r="G24" t="n">
-        <v>94.41983795166016</v>
+        <v>71.06827545166016</v>
       </c>
       <c r="H24" t="n">
-        <v>-72.53446960449219</v>
+        <v>-34.21187973022461</v>
       </c>
       <c r="I24" t="n">
-        <v>32.5947380065918</v>
+        <v>53.19504165649414</v>
       </c>
     </row>
     <row r="25">
@@ -1164,16 +1164,16 @@
         <v>16.86666666666669</v>
       </c>
       <c r="F25" t="n">
-        <v>284.5554809570312</v>
+        <v>239.8040618896484</v>
       </c>
       <c r="G25" t="n">
-        <v>89.26203918457031</v>
+        <v>71.12744903564453</v>
       </c>
       <c r="H25" t="n">
-        <v>-71.9267578125</v>
+        <v>-35.60042953491211</v>
       </c>
       <c r="I25" t="n">
-        <v>29.86367416381836</v>
+        <v>54.23312759399414</v>
       </c>
     </row>
     <row r="26">
@@ -1193,16 +1193,16 @@
         <v>14.43333333333337</v>
       </c>
       <c r="F26" t="n">
-        <v>279.314697265625</v>
+        <v>237.7367401123047</v>
       </c>
       <c r="G26" t="n">
-        <v>83.51864624023438</v>
+        <v>71.28700256347656</v>
       </c>
       <c r="H26" t="n">
-        <v>-71.89351654052734</v>
+        <v>-37.52795028686523</v>
       </c>
       <c r="I26" t="n">
-        <v>27.64826011657715</v>
+        <v>55.16756820678711</v>
       </c>
     </row>
     <row r="27">
@@ -1222,16 +1222,16 @@
         <v>12.00000000000003</v>
       </c>
       <c r="F27" t="n">
-        <v>273.6525573730469</v>
+        <v>235.7091369628906</v>
       </c>
       <c r="G27" t="n">
-        <v>77.56695556640625</v>
+        <v>71.526611328125</v>
       </c>
       <c r="H27" t="n">
-        <v>-72.40637969970703</v>
+        <v>-39.86326599121094</v>
       </c>
       <c r="I27" t="n">
-        <v>26.02432441711426</v>
+        <v>56.04776763916016</v>
       </c>
     </row>
     <row r="28">
@@ -1251,16 +1251,16 @@
         <v>9.566666666666691</v>
       </c>
       <c r="F28" t="n">
-        <v>267.6529846191406</v>
+        <v>233.6478424072266</v>
       </c>
       <c r="G28" t="n">
-        <v>71.87799072265625</v>
+        <v>71.83927154541016</v>
       </c>
       <c r="H28" t="n">
-        <v>-73.41875457763672</v>
+        <v>-42.47483444213867</v>
       </c>
       <c r="I28" t="n">
-        <v>25.09060668945312</v>
+        <v>56.9341926574707</v>
       </c>
     </row>
     <row r="29">
@@ -1280,16 +1280,16 @@
         <v>7.133333333333354</v>
       </c>
       <c r="F29" t="n">
-        <v>261.4896850585938</v>
+        <v>231.4908599853516</v>
       </c>
       <c r="G29" t="n">
-        <v>66.92144775390625</v>
+        <v>72.23226165771484</v>
       </c>
       <c r="H29" t="n">
-        <v>-74.86128997802734</v>
+        <v>-45.24114608764648</v>
       </c>
       <c r="I29" t="n">
-        <v>24.9521656036377</v>
+        <v>57.8773193359375</v>
       </c>
     </row>
     <row r="30">
@@ -1309,16 +1309,16 @@
         <v>4.700000000000017</v>
       </c>
       <c r="F30" t="n">
-        <v>255.3728637695312</v>
+        <v>229.1976776123047</v>
       </c>
       <c r="G30" t="n">
-        <v>63.01128387451172</v>
+        <v>72.72381591796875</v>
       </c>
       <c r="H30" t="n">
-        <v>-76.64397430419922</v>
+        <v>-48.06817245483398</v>
       </c>
       <c r="I30" t="n">
-        <v>25.67546081542969</v>
+        <v>58.89762115478516</v>
       </c>
     </row>
   </sheetData>
